--- a/Test Data/SanitySheet.xlsx
+++ b/Test Data/SanitySheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="194">
   <si>
     <t>Test Scenarios for Web &amp; Device (Android &amp; IOS) </t>
   </si>
@@ -873,15 +873,14 @@
   <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="61.8265306122449" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="19.5714285714286" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="61.1530612244898" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="13.3622448979592" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="19.3061224489796" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1072,9 @@
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1093,21 +1094,27 @@
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">

--- a/Test Data/SanitySheet.xlsx
+++ b/Test Data/SanitySheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="194">
   <si>
     <t>Test Scenarios for Web &amp; Device (Android &amp; IOS) </t>
   </si>
